--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,54 +4,80 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6530"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="百度" sheetId="1" r:id="rId1"/>
+    <sheet name="详情" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>返回</t>
-  </si>
-  <si>
-    <t>操作方式</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>元素地址</t>
-  </si>
-  <si>
-    <t>序号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>locator</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>打开网页</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com</t>
   </si>
   <si>
     <t>输入</t>
   </si>
   <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="kw"]</t>
+  </si>
+  <si>
+    <t>乔丹</t>
+  </si>
+  <si>
     <t>点击</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>打开网页</t>
-  </si>
-  <si>
-    <t>rul</t>
-  </si>
-  <si>
-    <t>https://www.bangwo8.com/osp2016/agent/index.php</t>
+    <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>调用用例</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <t>//*[@id="2"]/div/div/h3/a</t>
   </si>
 </sst>
 </file>
@@ -64,7 +90,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,44 +99,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,159 +569,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,66 +1081,108 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="55.1818181818182" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="55.1818181818182" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.bangwo8.com/osp2016/agent/index.php"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1101,33 +1192,68 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
+  <cols>
+    <col min="4" max="4" width="19.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130"/>
+    <workbookView windowWidth="18530" windowHeight="6530"/>
   </bookViews>
   <sheets>
-    <sheet name="百度" sheetId="1" r:id="rId1"/>
-    <sheet name="详情" sheetId="2" r:id="rId2"/>
+    <sheet name="baidu" sheetId="1" r:id="rId1"/>
+    <sheet name="common_feiren" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -53,31 +54,40 @@
     <t>https://www.baidu.com</t>
   </si>
   <si>
+    <t>等待元素可见</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="lg"]/map/area</t>
+  </si>
+  <si>
     <t>输入</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
     <t>//*[@id="kw"]</t>
   </si>
   <si>
     <t>乔丹</t>
   </si>
   <si>
+    <t>调用用例</t>
+  </si>
+  <si>
+    <t>common_feiren</t>
+  </si>
+  <si>
     <t>点击</t>
   </si>
   <si>
     <t>//*[@id="su"]</t>
   </si>
   <si>
-    <t>调用用例</t>
-  </si>
-  <si>
-    <t>详情</t>
-  </si>
-  <si>
-    <t>//*[@id="2"]/div/div/h3/a</t>
+    <t>关闭浏览器</t>
+  </si>
+  <si>
+    <t>路飞</t>
   </si>
 </sst>
 </file>
@@ -90,7 +100,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,18 +115,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="宋体"/>
+      <color rgb="FFC4C4C8"/>
+      <name val="DejaVu Sans Mono"/>
       <charset val="134"/>
     </font>
     <font>
@@ -572,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,34 +600,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,100 +636,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,7 +749,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,105 +1106,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="55.1818181818182" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="26.7272727272727" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="55.1818181818182" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1195,65 +1244,85 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="4" max="4" width="19.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="1" max="3" width="8.72727272727273" style="1"/>
+    <col min="4" max="4" width="19.2727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6530"/>
+    <workbookView windowWidth="18530" windowHeight="7130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -51,43 +51,49 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://www.baidu.com</t>
-  </si>
-  <si>
-    <t>等待元素可见</t>
+    <t>http://124.70.177.195:8087</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>bos31</t>
+  </si>
+  <si>
+    <t>调用用例</t>
+  </si>
+  <si>
+    <t>common_feiren</t>
+  </si>
+  <si>
+    <t>点击</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//*[@id="lg"]/map/area</t>
-  </si>
-  <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>//*[@id="kw"]</t>
-  </si>
-  <si>
-    <t>乔丹</t>
-  </si>
-  <si>
-    <t>调用用例</t>
-  </si>
-  <si>
-    <t>common_feiren</t>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>//*[@id="su"]</t>
+    <t>/html/body/div[2]/div/div[2]/form[1]/a</t>
   </si>
   <si>
     <t>关闭浏览器</t>
   </si>
   <si>
-    <t>路飞</t>
+    <t>发送邮件</t>
+  </si>
+  <si>
+    <t>//*[@id="verifyCode"]</t>
+  </si>
+  <si>
+    <t>验证码</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,25 +121,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFC4C4C8"/>
-      <name val="DejaVu Sans Mono"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -588,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,33 +602,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,101 +641,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,16 +748,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,132 +1102,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="26.7272727272727" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="55.1818181818182" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="26.7272727272727" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="55.1818181818182" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://124.70.177.195:8087"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1243,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1290,17 +1297,17 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="6530"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>关闭浏览器</t>
-  </si>
-  <si>
-    <t>发送邮件</t>
   </si>
   <si>
     <t>//*[@id="verifyCode"]</t>
@@ -1102,13 +1099,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="26.7272727272727" style="4" customWidth="1"/>
@@ -1225,14 +1222,6 @@
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1250,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1303,11 +1292,11 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6530"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -84,7 +84,49 @@
     <t>/html/body/div[2]/div/div[2]/form[1]/a</t>
   </si>
   <si>
-    <t>关闭浏览器</t>
+    <t>等待元素可见</t>
+  </si>
+  <si>
+    <t>//*[@id="header-logo"]/img</t>
+  </si>
+  <si>
+    <t>//*[@id="page-tab-183"]/a</t>
+  </si>
+  <si>
+    <t>accordion_headings_12964</t>
+  </si>
+  <si>
+    <t>//*[@id="page-nav-commands"]/div[1]/a[1]</t>
+  </si>
+  <si>
+    <t>column_21395</t>
+  </si>
+  <si>
+    <t>测试单据</t>
+  </si>
+  <si>
+    <t>//*[@id="buttons"]/a[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="embed-items"]</t>
+  </si>
+  <si>
+    <t>//*[@id="tabs"]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>eo_M_PRODUCT_ID__NAME</t>
+  </si>
+  <si>
+    <t>AX00201155</t>
+  </si>
+  <si>
+    <t>//*[@id="inc-edit-line"]/table[1]/tbody/tr/td[5]/input[3]</t>
+  </si>
+  <si>
+    <t>M88602_templaterow</t>
+  </si>
+  <si>
+    <t>//*[@id="tabs"]/ul/li[4]/a</t>
   </si>
   <si>
     <t>//*[@id="verifyCode"]</t>
@@ -1099,13 +1141,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="26.7272727272727" style="4" customWidth="1"/>
@@ -1216,12 +1258,181 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1292,11 +1503,11 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>

--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
-    <sheet name="baidu" sheetId="1" r:id="rId1"/>
-    <sheet name="common_feiren" sheetId="2" r:id="rId2"/>
+    <sheet name="零售单" sheetId="1" r:id="rId1"/>
+    <sheet name="common_验证码" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -72,7 +72,7 @@
     <t>调用用例</t>
   </si>
   <si>
-    <t>common_feiren</t>
+    <t>common_验证码</t>
   </si>
   <si>
     <t>点击</t>
@@ -93,13 +93,19 @@
     <t>//*[@id="page-tab-183"]/a</t>
   </si>
   <si>
-    <t>accordion_headings_12964</t>
+    <t>//*[@id="accordion_headings_12964"]</t>
   </si>
   <si>
     <t>//*[@id="page-nav-commands"]/div[1]/a[1]</t>
   </si>
   <si>
-    <t>column_21395</t>
+    <t>打开表单</t>
+  </si>
+  <si>
+    <t>popup-iframe-0</t>
+  </si>
+  <si>
+    <t>//*[@id="column_21395"]</t>
   </si>
   <si>
     <t>测试单据</t>
@@ -123,10 +129,22 @@
     <t>//*[@id="inc-edit-line"]/table[1]/tbody/tr/td[5]/input[3]</t>
   </si>
   <si>
-    <t>M88602_templaterow</t>
+    <t>//*[@id="grid_table"]</t>
   </si>
   <si>
     <t>//*[@id="tabs"]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="cbt_eo_C_PAYWAY_ID__NAME"]/i</t>
+  </si>
+  <si>
+    <t>//*[@id="chk_obj_2"]</t>
+  </si>
+  <si>
+    <t>//*[@id="eo_PAYAMOUNT"]</t>
+  </si>
+  <si>
+    <t>//*[@id="emtbts_btns"]/table/tbody/tr/td[4]/input</t>
   </si>
   <si>
     <t>//*[@id="verifyCode"]</t>
@@ -1141,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1152,8 +1170,10 @@
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="26.7272727272727" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="55.1818181818182" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="5" max="5" width="58.5454545454545" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="14" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1265,11 +1285,14 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1294,18 +1317,18 @@
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
@@ -1313,22 +1336,22 @@
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1336,30 +1359,27 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1376,21 +1396,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>33</v>
+      <c r="I15" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1404,21 +1424,24 @@
         <v>20</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1433,6 +1456,93 @@
       </c>
       <c r="E18" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1503,11 +1613,11 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
